--- a/Dataset/Naive RAG/Liam/Session1/Annotator1.xlsx
+++ b/Dataset/Naive RAG/Liam/Session1/Annotator1.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>my name is higashi. Im 22 years old, a bachelor student at kyoto university. and im from japan.</t>
+          <t>my name is higashi. Im 22 years old, a bachelor student at Doshisha Universityversity. and im from japan.</t>
         </is>
       </c>
     </row>
